--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="7110"/>
+    <workbookView windowWidth="24570" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -113,7 +113,7 @@
     <t>TbItem</t>
   </si>
   <si>
-    <t>Item</t>
+    <t>CfgItem</t>
   </si>
   <si>
     <t>item.xlsx</t>
@@ -122,13 +122,58 @@
     <t>TbConstant</t>
   </si>
   <si>
-    <t>Constant</t>
+    <t>CfgConstant</t>
   </si>
   <si>
     <t>constant.xlsx</t>
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>TbHero</t>
+  </si>
+  <si>
+    <t>CfgHero</t>
+  </si>
+  <si>
+    <t>Hero.xlsx</t>
+  </si>
+  <si>
+    <t>TbBuff</t>
+  </si>
+  <si>
+    <t>CfgBuff</t>
+  </si>
+  <si>
+    <t>Buff.xlsx</t>
+  </si>
+  <si>
+    <t>TbSkill</t>
+  </si>
+  <si>
+    <t>CfgSkill</t>
+  </si>
+  <si>
+    <t>Skill.xlsx</t>
+  </si>
+  <si>
+    <t>TbDailyReward</t>
+  </si>
+  <si>
+    <t>CfgDailyReward</t>
+  </si>
+  <si>
+    <t>DailyReward.xlsx</t>
+  </si>
+  <si>
+    <t>TbTurntableLottery</t>
+  </si>
+  <si>
+    <t>CfgTurntableLottery</t>
+  </si>
+  <si>
+    <t>TurntableLottery.xlsx</t>
   </si>
 </sst>
 </file>
@@ -771,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +833,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,13 +1157,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1295,8 +1343,113 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
